--- a/1_政策宣傳執情形/parsed/農委會/農委會主管102年第3季廣宣彙整表.xlsx
+++ b/1_政策宣傳執情形/parsed/農委會/農委會主管102年第3季廣宣彙整表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
   <si>
     <t>1.102年度7-9月漁船船員訓練課程  2.漁船紀錄器不可拆卸 3.產銷履歷驗證標章宣導 4.漁船主依「就業服務法」僱用之外籍船員應申請及註銷外國籍船員證，且僱用期間不得從事非經許可之工作 5.簽署「臺日漁業協議」雙方漁民應和平互惠、永續利用資源 6.人口</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>樂活瘋農村-親子體驗輕旅遊活動</t>
+  </si>
+  <si>
+    <t>民國年</t>
   </si>
   <si>
     <t>水保局</t>
@@ -1057,2568 +1060,2950 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.10"/>
-    <col min="2" max="2" width="9.10"/>
-    <col min="3" max="3" width="9.10"/>
-    <col min="4" max="4" width="9.10"/>
-    <col min="5" max="5" width="9.10"/>
-    <col min="6" max="6" width="9.10"/>
-    <col min="7" max="7" width="9.10"/>
+    <col max="1" min="1" width="9.10"/>
+    <col max="2" min="2" width="9.10"/>
+    <col max="3" min="3" width="9.10"/>
+    <col max="4" min="4" width="9.10"/>
+    <col max="5" min="5" width="9.10"/>
+    <col max="6" min="6" width="9.10"/>
+    <col max="7" min="7" width="9.10"/>
+    <col max="8" min="8" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:7" r="1">
-      <c s="2" t="s" r="A1">
+    <row spans="1:8" r="1">
+      <c t="s" r="A1" s="2">
         <v>30</v>
       </c>
-      <c s="2" t="s" r="B1">
+      <c t="s" r="B1" s="2">
         <v>69</v>
       </c>
-      <c s="2" t="s" r="C1">
+      <c t="s" r="C1" s="2">
+        <v>113</v>
+      </c>
+      <c t="s" r="D1" s="2">
         <v>108</v>
       </c>
-      <c s="2" t="s" r="D1">
-        <v>183</v>
-      </c>
-      <c s="2" t="s" r="E1">
+      <c t="s" r="E1" s="2">
+        <v>184</v>
+      </c>
+      <c t="s" r="F1" s="2">
         <v>41</v>
       </c>
-      <c s="2" t="s" r="F1">
-        <v>156</v>
-      </c>
-      <c s="2" t="s" r="G1">
+      <c t="s" r="G1" s="2">
+        <v>157</v>
+      </c>
+      <c t="s" r="H1" s="2">
         <v>31</v>
       </c>
     </row>
-    <row spans="1:7" r="2">
+    <row spans="1:8" r="2">
       <c t="s" r="A2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="B2">
         <v>59</v>
       </c>
-      <c t="s" r="C2">
+      <c t="n" r="C2">
+        <v>102</v>
+      </c>
+      <c t="s" r="D2">
         <v>15</v>
       </c>
-      <c t="n" r="D2">
+      <c t="n" r="E2">
         <v>404000</v>
       </c>
-      <c t="s" r="E2">
-        <v>167</v>
-      </c>
       <c t="s" r="F2">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="3">
+        <v>168</v>
+      </c>
+      <c t="s" r="G2">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="3">
       <c t="s" r="A3">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="B3">
-        <v>219</v>
-      </c>
-      <c t="s" r="C3">
+        <v>220</v>
+      </c>
+      <c t="n" r="C3">
+        <v>102</v>
+      </c>
+      <c t="s" r="D3">
         <v>15</v>
       </c>
-      <c t="n" r="D3">
+      <c t="n" r="E3">
         <v>184800</v>
       </c>
-      <c t="s" r="E3">
-        <v>167</v>
-      </c>
       <c t="s" r="F3">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="4">
+        <v>168</v>
+      </c>
+      <c t="s" r="G3">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="4">
       <c t="s" r="A4">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="B4">
-        <v>132</v>
-      </c>
-      <c t="s" r="C4">
+        <v>133</v>
+      </c>
+      <c t="n" r="C4">
+        <v>102</v>
+      </c>
+      <c t="s" r="D4">
         <v>15</v>
       </c>
-      <c t="n" r="D4">
+      <c t="n" r="E4">
         <v>0</v>
       </c>
-      <c t="s" r="E4">
-        <v>167</v>
-      </c>
       <c t="s" r="F4">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="5">
+        <v>168</v>
+      </c>
+      <c t="s" r="G4">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="5">
       <c t="s" r="A5">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="B5">
-        <v>205</v>
-      </c>
-      <c t="s" r="C5">
+        <v>206</v>
+      </c>
+      <c t="n" r="C5">
+        <v>102</v>
+      </c>
+      <c t="s" r="D5">
         <v>16</v>
       </c>
-      <c t="n" r="D5">
+      <c t="n" r="E5">
         <v>775660</v>
       </c>
-      <c t="s" r="E5">
-        <v>167</v>
-      </c>
       <c t="s" r="F5">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="6">
+        <v>168</v>
+      </c>
+      <c t="s" r="G5">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="6">
       <c t="s" r="A6">
         <v>32</v>
       </c>
       <c t="s" r="B6">
-        <v>218</v>
-      </c>
-      <c t="s" r="C6">
+        <v>219</v>
+      </c>
+      <c t="n" r="C6">
+        <v>102</v>
+      </c>
+      <c t="s" r="D6">
         <v>15</v>
       </c>
-      <c t="n" r="D6">
+      <c t="n" r="E6">
         <v>206900</v>
       </c>
-      <c t="s" r="E6">
-        <v>167</v>
-      </c>
       <c t="s" r="F6">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="7">
+        <v>168</v>
+      </c>
+      <c t="s" r="G6">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="7">
       <c t="s" r="A7">
         <v>32</v>
       </c>
       <c t="s" r="B7">
-        <v>136</v>
-      </c>
-      <c t="s" r="C7">
+        <v>137</v>
+      </c>
+      <c t="n" r="C7">
+        <v>102</v>
+      </c>
+      <c t="s" r="D7">
         <v>15</v>
       </c>
-      <c t="n" r="D7">
+      <c t="n" r="E7">
         <v>0</v>
       </c>
-      <c t="s" r="E7">
-        <v>167</v>
-      </c>
       <c t="s" r="F7">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="8">
+        <v>168</v>
+      </c>
+      <c t="s" r="G7">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="8">
       <c t="s" r="A8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="B8">
         <v>48</v>
       </c>
-      <c t="s" r="C8">
+      <c t="n" r="C8">
+        <v>102</v>
+      </c>
+      <c t="s" r="D8">
         <v>15</v>
       </c>
-      <c t="n" r="D8">
+      <c t="n" r="E8">
         <v>1570730</v>
       </c>
-      <c t="s" r="E8">
-        <v>167</v>
-      </c>
       <c t="s" r="F8">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="9">
+        <v>168</v>
+      </c>
+      <c t="s" r="G8">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="9">
       <c t="s" r="A9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="B9">
-        <v>217</v>
-      </c>
-      <c t="s" r="C9">
+        <v>218</v>
+      </c>
+      <c t="n" r="C9">
+        <v>102</v>
+      </c>
+      <c t="s" r="D9">
         <v>15</v>
       </c>
-      <c t="n" r="D9">
+      <c t="n" r="E9">
         <v>1625000</v>
       </c>
-      <c t="s" r="E9">
-        <v>167</v>
-      </c>
       <c t="s" r="F9">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="10">
+        <v>168</v>
+      </c>
+      <c t="s" r="G9">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="10">
       <c t="s" r="A10">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="B10">
         <v>100</v>
       </c>
-      <c t="s" r="C10">
+      <c t="n" r="C10">
+        <v>102</v>
+      </c>
+      <c t="s" r="D10">
         <v>15</v>
       </c>
-      <c t="n" r="D10">
+      <c t="n" r="E10">
         <v>229400</v>
       </c>
-      <c t="s" r="E10">
-        <v>167</v>
-      </c>
       <c t="s" r="F10">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="G10">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="11">
       <c t="s" r="A11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="B11">
-        <v>193</v>
-      </c>
-      <c t="s" r="C11">
+        <v>194</v>
+      </c>
+      <c t="n" r="C11">
+        <v>102</v>
+      </c>
+      <c t="s" r="D11">
         <v>15</v>
       </c>
-      <c t="n" r="D11">
+      <c t="n" r="E11">
         <v>159750</v>
       </c>
-      <c t="s" r="E11">
-        <v>167</v>
-      </c>
       <c t="s" r="F11">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="12">
+        <v>168</v>
+      </c>
+      <c t="s" r="G11">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="12">
       <c t="s" r="A12">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="B12">
-        <v>133</v>
-      </c>
-      <c t="s" r="C12">
+        <v>134</v>
+      </c>
+      <c t="n" r="C12">
+        <v>102</v>
+      </c>
+      <c t="s" r="D12">
         <v>15</v>
       </c>
-      <c t="n" r="D12">
+      <c t="n" r="E12">
         <v>200800</v>
       </c>
-      <c t="s" r="E12">
-        <v>167</v>
-      </c>
       <c t="s" r="F12">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="13">
+        <v>168</v>
+      </c>
+      <c t="s" r="G12">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="13">
       <c t="s" r="A13">
         <v>73</v>
       </c>
       <c t="s" r="B13">
         <v>45</v>
       </c>
-      <c t="s" r="C13">
+      <c t="n" r="C13">
+        <v>102</v>
+      </c>
+      <c t="s" r="D13">
         <v>24</v>
       </c>
-      <c t="n" r="D13">
+      <c t="n" r="E13">
         <v>1259283</v>
       </c>
-      <c t="s" r="E13">
-        <v>167</v>
-      </c>
       <c t="s" r="F13">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="14">
+        <v>168</v>
+      </c>
+      <c t="s" r="G13">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="14">
       <c t="s" r="A14">
         <v>73</v>
       </c>
       <c t="s" r="B14">
-        <v>206</v>
-      </c>
-      <c t="s" r="C14">
+        <v>207</v>
+      </c>
+      <c t="n" r="C14">
+        <v>102</v>
+      </c>
+      <c t="s" r="D14">
         <v>24</v>
       </c>
-      <c t="n" r="D14">
+      <c t="n" r="E14">
         <v>0</v>
       </c>
-      <c t="s" r="E14">
-        <v>167</v>
-      </c>
       <c t="s" r="F14">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="15">
+        <v>168</v>
+      </c>
+      <c t="s" r="G14">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="15">
       <c t="s" r="A15">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="B15">
+        <v>222</v>
+      </c>
+      <c t="n" r="C15">
+        <v>102</v>
+      </c>
+      <c t="s" r="D15">
+        <v>22</v>
+      </c>
+      <c t="n" r="E15">
+        <v>61500</v>
+      </c>
+      <c t="s" r="F15">
+        <v>168</v>
+      </c>
+      <c t="s" r="G15">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="16">
+      <c t="s" r="A16">
+        <v>180</v>
+      </c>
+      <c t="s" r="B16">
+        <v>217</v>
+      </c>
+      <c t="n" r="C16">
+        <v>102</v>
+      </c>
+      <c t="s" r="D16">
+        <v>22</v>
+      </c>
+      <c t="n" r="E16">
+        <v>1210000</v>
+      </c>
+      <c t="s" r="F16">
+        <v>168</v>
+      </c>
+      <c t="s" r="G16">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="17">
+      <c t="s" r="A17">
+        <v>180</v>
+      </c>
+      <c t="s" r="B17">
+        <v>136</v>
+      </c>
+      <c t="n" r="C17">
+        <v>102</v>
+      </c>
+      <c t="s" r="D17">
+        <v>22</v>
+      </c>
+      <c t="n" r="E17">
+        <v>200000</v>
+      </c>
+      <c t="s" r="F17">
+        <v>168</v>
+      </c>
+      <c t="s" r="G17">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="18">
+      <c t="s" r="A18">
+        <v>122</v>
+      </c>
+      <c t="s" r="B18">
         <v>221</v>
       </c>
-      <c t="s" r="C15">
+      <c t="n" r="C18">
+        <v>102</v>
+      </c>
+      <c t="s" r="D18">
         <v>22</v>
       </c>
-      <c t="n" r="D15">
-        <v>61500</v>
-      </c>
-      <c t="s" r="E15">
-        <v>167</v>
-      </c>
-      <c t="s" r="F15">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="16">
-      <c t="s" r="A16">
-        <v>179</v>
-      </c>
-      <c t="s" r="B16">
-        <v>216</v>
-      </c>
-      <c t="s" r="C16">
-        <v>22</v>
-      </c>
-      <c t="n" r="D16">
-        <v>1210000</v>
-      </c>
-      <c t="s" r="E16">
-        <v>167</v>
-      </c>
-      <c t="s" r="F16">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="17">
-      <c t="s" r="A17">
-        <v>179</v>
-      </c>
-      <c t="s" r="B17">
-        <v>135</v>
-      </c>
-      <c t="s" r="C17">
-        <v>22</v>
-      </c>
-      <c t="n" r="D17">
-        <v>200000</v>
-      </c>
-      <c t="s" r="E17">
-        <v>167</v>
-      </c>
-      <c t="s" r="F17">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="18">
-      <c t="s" r="A18">
-        <v>121</v>
-      </c>
-      <c t="s" r="B18">
-        <v>220</v>
-      </c>
-      <c t="s" r="C18">
-        <v>22</v>
-      </c>
-      <c t="n" r="D18">
+      <c t="n" r="E18">
         <v>160500</v>
       </c>
-      <c t="s" r="E18">
-        <v>167</v>
-      </c>
       <c t="s" r="F18">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="19">
+        <v>168</v>
+      </c>
+      <c t="s" r="G18">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="19">
       <c t="s" r="A19">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="B19">
         <v>50</v>
       </c>
-      <c t="s" r="C19">
+      <c t="n" r="C19">
+        <v>102</v>
+      </c>
+      <c t="s" r="D19">
         <v>22</v>
       </c>
-      <c t="n" r="D19">
+      <c t="n" r="E19">
         <v>87940</v>
       </c>
-      <c t="s" r="E19">
-        <v>167</v>
-      </c>
       <c t="s" r="F19">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="20">
+        <v>168</v>
+      </c>
+      <c t="s" r="G19">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="20">
       <c t="s" r="A20">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="B20">
-        <v>203</v>
-      </c>
-      <c t="s" r="C20">
+        <v>204</v>
+      </c>
+      <c t="n" r="C20">
+        <v>102</v>
+      </c>
+      <c t="s" r="D20">
         <v>22</v>
       </c>
-      <c t="n" r="D20">
+      <c t="n" r="E20">
         <v>201285</v>
       </c>
-      <c t="s" r="E20">
-        <v>167</v>
-      </c>
       <c t="s" r="F20">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="21">
+        <v>168</v>
+      </c>
+      <c t="s" r="G20">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="21">
       <c t="s" r="A21">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="B21">
-        <v>145</v>
-      </c>
-      <c t="s" r="C21">
+        <v>146</v>
+      </c>
+      <c t="n" r="C21">
+        <v>102</v>
+      </c>
+      <c t="s" r="D21">
         <v>22</v>
       </c>
-      <c t="n" r="D21">
+      <c t="n" r="E21">
         <v>97711</v>
       </c>
-      <c t="s" r="E21">
-        <v>167</v>
-      </c>
       <c t="s" r="F21">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="22">
+        <v>168</v>
+      </c>
+      <c t="s" r="G21">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="22">
       <c t="s" r="A22">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="B22">
         <v>101</v>
       </c>
-      <c t="s" r="C22">
+      <c t="n" r="C22">
+        <v>102</v>
+      </c>
+      <c t="s" r="D22">
         <v>22</v>
       </c>
-      <c t="n" r="D22">
+      <c t="n" r="E22">
         <v>156350</v>
       </c>
-      <c t="s" r="E22">
-        <v>167</v>
-      </c>
       <c t="s" r="F22">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="23">
+        <v>168</v>
+      </c>
+      <c t="s" r="G22">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="23">
       <c t="s" r="A23">
         <v>1</v>
       </c>
       <c t="s" r="B23">
-        <v>184</v>
-      </c>
-      <c t="s" r="C23">
+        <v>185</v>
+      </c>
+      <c t="n" r="C23">
+        <v>102</v>
+      </c>
+      <c t="s" r="D23">
         <v>15</v>
       </c>
-      <c t="n" r="D23">
+      <c t="n" r="E23">
         <v>201283</v>
       </c>
-      <c t="s" r="E23">
-        <v>167</v>
-      </c>
       <c t="s" r="F23">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="24">
+        <v>168</v>
+      </c>
+      <c t="s" r="G23">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="24">
       <c t="s" r="A24">
         <v>1</v>
       </c>
       <c t="s" r="B24">
         <v>80</v>
       </c>
-      <c t="s" r="C24">
+      <c t="n" r="C24">
+        <v>102</v>
+      </c>
+      <c t="s" r="D24">
         <v>15</v>
       </c>
-      <c t="n" r="D24">
+      <c t="n" r="E24">
         <v>72300</v>
       </c>
-      <c t="s" r="E24">
-        <v>167</v>
-      </c>
       <c t="s" r="F24">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="25">
+        <v>168</v>
+      </c>
+      <c t="s" r="G24">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="25">
       <c t="s" r="A25">
         <v>1</v>
       </c>
       <c t="s" r="B25">
-        <v>139</v>
-      </c>
-      <c t="s" r="C25">
+        <v>140</v>
+      </c>
+      <c t="n" r="C25">
+        <v>102</v>
+      </c>
+      <c t="s" r="D25">
         <v>15</v>
       </c>
-      <c t="n" r="D25">
+      <c t="n" r="E25">
         <v>0</v>
       </c>
-      <c t="s" r="E25">
-        <v>167</v>
-      </c>
       <c t="s" r="F25">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="26">
+        <v>168</v>
+      </c>
+      <c t="s" r="G25">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="26">
       <c t="s" r="A26">
         <v>39</v>
       </c>
       <c t="s" r="B26">
-        <v>138</v>
-      </c>
-      <c t="s" r="C26">
+        <v>139</v>
+      </c>
+      <c t="n" r="C26">
+        <v>102</v>
+      </c>
+      <c t="s" r="D26">
         <v>13</v>
       </c>
-      <c t="n" r="D26">
+      <c t="n" r="E26">
         <v>0</v>
       </c>
-      <c t="s" r="E26">
-        <v>167</v>
-      </c>
       <c t="s" r="F26">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="27">
+        <v>168</v>
+      </c>
+      <c t="s" r="G26">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="27">
       <c t="s" r="A27">
         <v>39</v>
       </c>
       <c t="s" r="B27">
-        <v>214</v>
-      </c>
-      <c t="s" r="C27">
+        <v>215</v>
+      </c>
+      <c t="n" r="C27">
+        <v>102</v>
+      </c>
+      <c t="s" r="D27">
         <v>13</v>
       </c>
-      <c t="n" r="D27">
+      <c t="n" r="E27">
         <v>0</v>
       </c>
-      <c t="s" r="E27">
-        <v>167</v>
-      </c>
       <c t="s" r="F27">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="28">
+        <v>168</v>
+      </c>
+      <c t="s" r="G27">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="28">
       <c t="s" r="A28">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="B28">
-        <v>197</v>
-      </c>
-      <c t="s" r="C28">
+        <v>198</v>
+      </c>
+      <c t="n" r="C28">
+        <v>102</v>
+      </c>
+      <c t="s" r="D28">
         <v>22</v>
       </c>
-      <c t="n" r="D28">
+      <c t="n" r="E28">
         <v>56184</v>
       </c>
-      <c t="s" r="E28">
-        <v>167</v>
-      </c>
       <c t="s" r="F28">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="29">
+        <v>168</v>
+      </c>
+      <c t="s" r="G28">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="29">
       <c t="s" r="A29">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="B29">
         <v>43</v>
       </c>
-      <c t="s" r="C29">
+      <c t="n" r="C29">
+        <v>102</v>
+      </c>
+      <c t="s" r="D29">
         <v>22</v>
       </c>
-      <c t="n" r="D29">
+      <c t="n" r="E29">
         <v>273520</v>
       </c>
-      <c t="s" r="E29">
-        <v>167</v>
-      </c>
       <c t="s" r="F29">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="30">
+        <v>168</v>
+      </c>
+      <c t="s" r="G29">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="30">
       <c t="s" r="A30">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="B30">
-        <v>186</v>
-      </c>
-      <c t="s" r="C30">
+        <v>187</v>
+      </c>
+      <c t="n" r="C30">
+        <v>102</v>
+      </c>
+      <c t="s" r="D30">
         <v>22</v>
       </c>
-      <c t="n" r="D30">
+      <c t="n" r="E30">
         <v>0</v>
       </c>
-      <c t="s" r="E30">
-        <v>167</v>
-      </c>
       <c t="s" r="F30">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="31">
+        <v>168</v>
+      </c>
+      <c t="s" r="G30">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="31">
       <c t="s" r="A31">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="B31">
-        <v>140</v>
-      </c>
-      <c t="s" r="C31">
+        <v>141</v>
+      </c>
+      <c t="n" r="C31">
+        <v>102</v>
+      </c>
+      <c t="s" r="D31">
         <v>22</v>
       </c>
-      <c t="n" r="D31">
+      <c t="n" r="E31">
         <v>0</v>
       </c>
-      <c t="s" r="E31">
-        <v>167</v>
-      </c>
       <c t="s" r="F31">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="32">
+        <v>168</v>
+      </c>
+      <c t="s" r="G31">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="32">
       <c t="s" r="A32">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="B32">
         <v>102</v>
       </c>
-      <c t="s" r="C32">
+      <c t="n" r="C32">
+        <v>102</v>
+      </c>
+      <c t="s" r="D32">
         <v>22</v>
       </c>
-      <c t="n" r="D32">
+      <c t="n" r="E32">
         <v>51750</v>
       </c>
-      <c t="s" r="E32">
-        <v>167</v>
-      </c>
       <c t="s" r="F32">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="33">
+        <v>168</v>
+      </c>
+      <c t="s" r="G32">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="33">
       <c t="s" r="A33">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="B33">
         <v>80</v>
       </c>
-      <c t="s" r="C33">
+      <c t="n" r="C33">
+        <v>102</v>
+      </c>
+      <c t="s" r="D33">
         <v>16</v>
       </c>
-      <c t="n" r="D33">
+      <c t="n" r="E33">
         <v>36150</v>
       </c>
-      <c t="s" r="E33">
-        <v>167</v>
-      </c>
       <c t="s" r="F33">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="34">
+        <v>168</v>
+      </c>
+      <c t="s" r="G33">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="34">
       <c t="s" r="A34">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="B34">
-        <v>188</v>
-      </c>
-      <c t="s" r="C34">
+        <v>189</v>
+      </c>
+      <c t="n" r="C34">
+        <v>102</v>
+      </c>
+      <c t="s" r="D34">
         <v>16</v>
       </c>
-      <c t="n" r="D34">
+      <c t="n" r="E34">
         <v>40200</v>
       </c>
-      <c t="s" r="E34">
-        <v>167</v>
-      </c>
       <c t="s" r="F34">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="35">
+        <v>168</v>
+      </c>
+      <c t="s" r="G34">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="35">
       <c t="s" r="A35">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="B35">
         <v>54</v>
       </c>
-      <c t="s" r="C35">
+      <c t="n" r="C35">
+        <v>102</v>
+      </c>
+      <c t="s" r="D35">
         <v>13</v>
       </c>
-      <c t="n" r="D35">
+      <c t="n" r="E35">
         <v>154360</v>
       </c>
-      <c t="s" r="E35">
-        <v>167</v>
-      </c>
       <c t="s" r="F35">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="36">
+        <v>168</v>
+      </c>
+      <c t="s" r="G35">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="36">
       <c t="s" r="A36">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="B36">
-        <v>200</v>
-      </c>
-      <c t="s" r="C36">
+        <v>201</v>
+      </c>
+      <c t="n" r="C36">
+        <v>102</v>
+      </c>
+      <c t="s" r="D36">
         <v>19</v>
       </c>
-      <c t="n" r="D36">
+      <c t="n" r="E36">
         <v>53850</v>
       </c>
-      <c t="s" r="E36">
-        <v>167</v>
-      </c>
       <c t="s" r="F36">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="37">
+        <v>168</v>
+      </c>
+      <c t="s" r="G36">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="37">
       <c t="s" r="A37">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="B37">
-        <v>134</v>
-      </c>
-      <c t="s" r="C37">
+        <v>135</v>
+      </c>
+      <c t="n" r="C37">
+        <v>102</v>
+      </c>
+      <c t="s" r="D37">
         <v>18</v>
       </c>
-      <c t="n" r="D37">
+      <c t="n" r="E37">
         <v>160500</v>
       </c>
-      <c t="s" r="E37">
-        <v>167</v>
-      </c>
       <c t="s" r="F37">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="38">
+        <v>168</v>
+      </c>
+      <c t="s" r="G37">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="38">
       <c t="s" r="A38">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="B38">
         <v>81</v>
       </c>
-      <c t="s" r="C38">
+      <c t="n" r="C38">
+        <v>102</v>
+      </c>
+      <c t="s" r="D38">
         <v>16</v>
       </c>
-      <c t="n" r="D38">
+      <c t="n" r="E38">
         <v>0</v>
       </c>
-      <c t="s" r="E38">
-        <v>167</v>
-      </c>
       <c t="s" r="F38">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="39">
+        <v>168</v>
+      </c>
+      <c t="s" r="G38">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="39">
       <c t="s" r="A39">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="B39">
         <v>81</v>
       </c>
-      <c t="s" r="C39">
+      <c t="n" r="C39">
+        <v>102</v>
+      </c>
+      <c t="s" r="D39">
         <v>16</v>
       </c>
-      <c t="n" r="D39">
+      <c t="n" r="E39">
         <v>0</v>
       </c>
-      <c t="s" r="E39">
-        <v>167</v>
-      </c>
       <c t="s" r="F39">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="40">
+        <v>168</v>
+      </c>
+      <c t="s" r="G39">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="40">
       <c t="s" r="A40">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="B40">
-        <v>143</v>
-      </c>
-      <c t="s" r="C40">
+        <v>144</v>
+      </c>
+      <c t="n" r="C40">
+        <v>102</v>
+      </c>
+      <c t="s" r="D40">
         <v>16</v>
       </c>
-      <c t="n" r="D40">
+      <c t="n" r="E40">
         <v>0</v>
       </c>
-      <c t="s" r="E40">
-        <v>167</v>
-      </c>
       <c t="s" r="F40">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="41">
+        <v>168</v>
+      </c>
+      <c t="s" r="G40">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="41">
       <c t="s" r="A41">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="B41">
-        <v>194</v>
-      </c>
-      <c t="s" r="C41">
+        <v>195</v>
+      </c>
+      <c t="n" r="C41">
+        <v>102</v>
+      </c>
+      <c t="s" r="D41">
         <v>22</v>
       </c>
-      <c t="n" r="D41">
+      <c t="n" r="E41">
         <v>199950</v>
       </c>
-      <c t="s" r="E41">
-        <v>167</v>
-      </c>
       <c t="s" r="F41">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="42">
+        <v>168</v>
+      </c>
+      <c t="s" r="G41">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="42">
       <c t="s" r="A42">
         <v>25</v>
       </c>
       <c t="s" r="B42">
-        <v>208</v>
-      </c>
-      <c t="s" r="C42">
+        <v>209</v>
+      </c>
+      <c t="n" r="C42">
+        <v>102</v>
+      </c>
+      <c t="s" r="D42">
         <v>22</v>
       </c>
-      <c t="n" r="D42">
+      <c t="n" r="E42">
         <v>228340</v>
       </c>
-      <c t="s" r="E42">
-        <v>167</v>
-      </c>
       <c t="s" r="F42">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="43">
+        <v>168</v>
+      </c>
+      <c t="s" r="G42">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="43">
       <c t="s" r="A43">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="B43">
         <v>47</v>
       </c>
-      <c t="s" r="C43">
+      <c t="n" r="C43">
+        <v>102</v>
+      </c>
+      <c t="s" r="D43">
         <v>22</v>
       </c>
-      <c t="n" r="D43">
+      <c t="n" r="E43">
         <v>16400</v>
       </c>
-      <c t="s" r="E43">
-        <v>167</v>
-      </c>
       <c t="s" r="F43">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="44">
+        <v>168</v>
+      </c>
+      <c t="s" r="G43">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="44">
       <c t="s" r="A44">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="B44">
-        <v>131</v>
-      </c>
-      <c t="s" r="C44">
+        <v>132</v>
+      </c>
+      <c t="n" r="C44">
+        <v>102</v>
+      </c>
+      <c t="s" r="D44">
         <v>21</v>
       </c>
-      <c t="n" r="D44">
+      <c t="n" r="E44">
         <v>142140</v>
       </c>
-      <c t="s" r="E44">
-        <v>167</v>
-      </c>
       <c t="s" r="F44">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="45">
+        <v>168</v>
+      </c>
+      <c t="s" r="G44">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="45">
       <c t="s" r="A45">
         <v>26</v>
       </c>
       <c t="s" r="B45">
         <v>85</v>
       </c>
-      <c t="s" r="C45">
+      <c t="n" r="C45">
+        <v>102</v>
+      </c>
+      <c t="s" r="D45">
         <v>19</v>
       </c>
-      <c t="n" r="D45">
+      <c t="n" r="E45">
         <v>0</v>
       </c>
-      <c t="s" r="E45">
-        <v>167</v>
-      </c>
       <c t="s" r="F45">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="46">
+        <v>168</v>
+      </c>
+      <c t="s" r="G45">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="46">
       <c t="s" r="A46">
         <v>33</v>
       </c>
       <c t="s" r="B46">
         <v>95</v>
       </c>
-      <c t="s" r="C46">
+      <c t="n" r="C46">
+        <v>102</v>
+      </c>
+      <c t="s" r="D46">
         <v>15</v>
       </c>
-      <c t="n" r="D46">
+      <c t="n" r="E46">
         <v>288000</v>
       </c>
-      <c t="s" r="E46">
-        <v>167</v>
-      </c>
       <c t="s" r="F46">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="47">
+        <v>168</v>
+      </c>
+      <c t="s" r="G46">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="47">
       <c t="s" r="A47">
         <v>9</v>
       </c>
       <c t="s" r="B47">
-        <v>144</v>
-      </c>
-      <c t="s" r="C47">
+        <v>145</v>
+      </c>
+      <c t="n" r="C47">
+        <v>102</v>
+      </c>
+      <c t="s" r="D47">
         <v>10</v>
       </c>
-      <c t="n" r="D47">
+      <c t="n" r="E47">
         <v>280000</v>
       </c>
-      <c t="s" r="E47">
-        <v>167</v>
-      </c>
       <c t="s" r="F47">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="48">
+        <v>168</v>
+      </c>
+      <c t="s" r="G47">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="48">
       <c t="s" r="A48">
         <v>6</v>
       </c>
       <c t="s" r="B48">
         <v>55</v>
       </c>
-      <c t="s" r="C48">
+      <c t="n" r="C48">
+        <v>102</v>
+      </c>
+      <c t="s" r="D48">
         <v>22</v>
       </c>
-      <c t="n" r="D48">
+      <c t="n" r="E48">
         <v>44950</v>
       </c>
-      <c t="s" r="E48">
-        <v>167</v>
-      </c>
       <c t="s" r="F48">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="49">
+        <v>168</v>
+      </c>
+      <c t="s" r="G48">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="49">
       <c t="s" r="A49">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="B49">
-        <v>185</v>
-      </c>
-      <c t="s" r="C49">
+        <v>186</v>
+      </c>
+      <c t="n" r="C49">
+        <v>102</v>
+      </c>
+      <c t="s" r="D49">
         <v>11</v>
       </c>
-      <c t="n" r="D49">
+      <c t="n" r="E49">
         <v>400000</v>
       </c>
-      <c t="s" r="E49">
-        <v>167</v>
-      </c>
       <c t="s" r="F49">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="50">
+        <v>168</v>
+      </c>
+      <c t="s" r="G49">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="50">
       <c t="s" r="A50">
         <v>36</v>
       </c>
       <c t="s" r="B50">
-        <v>210</v>
-      </c>
-      <c t="s" r="C50">
+        <v>211</v>
+      </c>
+      <c t="n" r="C50">
+        <v>102</v>
+      </c>
+      <c t="s" r="D50">
         <v>22</v>
       </c>
-      <c t="n" r="D50">
+      <c t="n" r="E50">
         <v>70000</v>
       </c>
-      <c t="s" r="E50">
-        <v>167</v>
-      </c>
       <c t="s" r="F50">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="51">
+        <v>168</v>
+      </c>
+      <c t="s" r="G50">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="51">
       <c t="s" r="A51">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="B51">
-        <v>198</v>
-      </c>
-      <c t="s" r="C51">
+        <v>199</v>
+      </c>
+      <c t="n" r="C51">
+        <v>102</v>
+      </c>
+      <c t="s" r="D51">
         <v>19</v>
       </c>
-      <c t="n" r="D51">
+      <c t="n" r="E51">
         <v>300000</v>
       </c>
-      <c t="s" r="E51">
-        <v>167</v>
-      </c>
       <c t="s" r="F51">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="52">
+        <v>168</v>
+      </c>
+      <c t="s" r="G51">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="52">
       <c t="s" r="A52">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="B52">
-        <v>130</v>
-      </c>
-      <c t="s" r="C52">
+        <v>131</v>
+      </c>
+      <c t="n" r="C52">
+        <v>102</v>
+      </c>
+      <c t="s" r="D52">
         <v>18</v>
       </c>
-      <c t="n" r="D52">
+      <c t="n" r="E52">
         <v>0</v>
       </c>
-      <c t="s" r="E52">
-        <v>167</v>
-      </c>
       <c t="s" r="F52">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="53">
+        <v>168</v>
+      </c>
+      <c t="s" r="G52">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="53">
       <c t="s" r="A53">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="B53">
         <v>86</v>
       </c>
-      <c t="s" r="C53">
+      <c t="n" r="C53">
+        <v>102</v>
+      </c>
+      <c t="s" r="D53">
         <v>18</v>
       </c>
-      <c t="n" r="D53">
+      <c t="n" r="E53">
         <v>300000</v>
       </c>
-      <c t="s" r="E53">
-        <v>167</v>
-      </c>
       <c t="s" r="F53">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="54">
+        <v>168</v>
+      </c>
+      <c t="s" r="G53">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="54">
       <c t="s" r="A54">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="B54">
         <v>44</v>
       </c>
-      <c t="s" r="C54">
+      <c t="n" r="C54">
+        <v>102</v>
+      </c>
+      <c t="s" r="D54">
         <v>18</v>
       </c>
-      <c t="n" r="D54">
+      <c t="n" r="E54">
         <v>52800</v>
       </c>
-      <c t="s" r="E54">
-        <v>167</v>
-      </c>
       <c t="s" r="F54">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="55">
+        <v>168</v>
+      </c>
+      <c t="s" r="G54">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="55">
       <c t="s" r="A55">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="B55">
-        <v>213</v>
-      </c>
-      <c t="s" r="C55">
+        <v>214</v>
+      </c>
+      <c t="n" r="C55">
+        <v>102</v>
+      </c>
+      <c t="s" r="D55">
         <v>22</v>
       </c>
-      <c t="n" r="D55">
+      <c t="n" r="E55">
         <v>0</v>
       </c>
-      <c t="s" r="E55">
-        <v>167</v>
-      </c>
       <c t="s" r="F55">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="56">
+        <v>168</v>
+      </c>
+      <c t="s" r="G55">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="56">
       <c t="s" r="A56">
         <v>38</v>
       </c>
       <c t="s" r="B56">
         <v>52</v>
       </c>
-      <c t="s" r="C56">
+      <c t="n" r="C56">
+        <v>102</v>
+      </c>
+      <c t="s" r="D56">
         <v>18</v>
       </c>
-      <c t="n" r="D56">
+      <c t="n" r="E56">
         <v>100000</v>
       </c>
-      <c t="s" r="E56">
-        <v>167</v>
-      </c>
       <c t="s" r="F56">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="57">
+        <v>168</v>
+      </c>
+      <c t="s" r="G56">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="57">
       <c t="s" r="A57">
         <v>38</v>
       </c>
       <c t="s" r="B57">
-        <v>141</v>
-      </c>
-      <c t="s" r="C57">
-        <v>18</v>
+        <v>142</v>
+      </c>
+      <c t="n" r="C57">
+        <v>102</v>
       </c>
       <c t="n" r="D57">
         <v>0</v>
       </c>
-      <c t="s" r="E57">
-        <v>167</v>
+      <c t="n" r="E57">
+        <v>100000</v>
       </c>
       <c t="s" r="F57">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="58">
+        <v>168</v>
+      </c>
+      <c t="s" r="G57">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="58">
       <c t="s" r="A58">
         <v>37</v>
       </c>
       <c t="s" r="B58">
-        <v>215</v>
-      </c>
-      <c t="s" r="C58">
+        <v>216</v>
+      </c>
+      <c t="n" r="C58">
+        <v>102</v>
+      </c>
+      <c t="s" r="D58">
         <v>22</v>
       </c>
-      <c t="n" r="D58">
+      <c t="n" r="E58">
         <v>900000</v>
       </c>
-      <c t="s" r="E58">
-        <v>167</v>
-      </c>
       <c t="s" r="F58">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="59">
+        <v>168</v>
+      </c>
+      <c t="s" r="G58">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="59">
       <c t="s" r="A59">
         <v>37</v>
       </c>
       <c t="s" r="B59">
         <v>82</v>
       </c>
-      <c t="s" r="C59">
-        <v>22</v>
+      <c t="n" r="C59">
+        <v>102</v>
       </c>
       <c t="n" r="D59">
         <v>0</v>
       </c>
-      <c t="s" r="E59">
-        <v>167</v>
+      <c t="n" r="E59">
+        <v>900000</v>
       </c>
       <c t="s" r="F59">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="60">
+        <v>168</v>
+      </c>
+      <c t="s" r="G59">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="60">
       <c t="s" r="A60">
         <v>104</v>
       </c>
       <c t="s" r="B60">
-        <v>199</v>
-      </c>
-      <c t="s" r="C60">
+        <v>200</v>
+      </c>
+      <c t="n" r="C60">
+        <v>102</v>
+      </c>
+      <c t="s" r="D60">
         <v>22</v>
       </c>
-      <c t="n" r="D60">
+      <c t="n" r="E60">
         <v>150000</v>
       </c>
-      <c t="s" r="E60">
-        <v>157</v>
-      </c>
       <c t="s" r="F60">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="61">
+        <v>158</v>
+      </c>
+      <c t="s" r="G60">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="61">
       <c t="s" r="A61">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="B61">
         <v>62</v>
       </c>
-      <c t="s" r="C61">
+      <c t="n" r="C61">
+        <v>102</v>
+      </c>
+      <c t="s" r="D61">
         <v>19</v>
       </c>
-      <c t="n" r="D61">
+      <c t="n" r="E61">
         <v>240000</v>
       </c>
-      <c t="s" r="E61">
-        <v>160</v>
-      </c>
       <c t="s" r="F61">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="62">
+        <v>161</v>
+      </c>
+      <c t="s" r="G61">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="62">
       <c t="s" r="A62">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="B62">
-        <v>210</v>
-      </c>
-      <c t="s" r="C62">
+        <v>211</v>
+      </c>
+      <c t="n" r="C62">
+        <v>102</v>
+      </c>
+      <c t="s" r="D62">
         <v>22</v>
       </c>
-      <c t="n" r="D62">
+      <c t="n" r="E62">
         <v>70000</v>
       </c>
-      <c t="s" r="E62">
-        <v>160</v>
-      </c>
       <c t="s" r="F62">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="63">
+        <v>161</v>
+      </c>
+      <c t="s" r="G62">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="63">
       <c t="s" r="A63">
+        <v>152</v>
+      </c>
+      <c t="s" r="B63">
+        <v>193</v>
+      </c>
+      <c t="n" r="C63">
+        <v>102</v>
+      </c>
+      <c t="s" r="D63">
+        <v>15</v>
+      </c>
+      <c t="n" r="E63">
+        <v>121900</v>
+      </c>
+      <c t="s" r="F63">
+        <v>110</v>
+      </c>
+      <c t="s" r="G63">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="64">
+      <c t="s" r="A64">
         <v>151</v>
-      </c>
-      <c t="s" r="B63">
-        <v>192</v>
-      </c>
-      <c t="s" r="C63">
-        <v>15</v>
-      </c>
-      <c t="n" r="D63">
-        <v>121900</v>
-      </c>
-      <c t="s" r="E63">
-        <v>110</v>
-      </c>
-      <c t="s" r="F63">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="64">
-      <c t="s" r="A64">
-        <v>150</v>
       </c>
       <c t="s" r="B64">
         <v>74</v>
       </c>
-      <c t="s" r="C64">
+      <c t="n" r="C64">
+        <v>102</v>
+      </c>
+      <c t="s" r="D64">
         <v>15</v>
       </c>
-      <c t="n" r="D64">
+      <c t="n" r="E64">
         <v>158500</v>
       </c>
-      <c t="s" r="E64">
+      <c t="s" r="F64">
         <v>110</v>
       </c>
-      <c t="s" r="F64">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="65">
+      <c t="s" r="G64">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="65">
       <c t="s" r="A65">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="B65">
         <v>49</v>
       </c>
-      <c s="1" t="n" r="C65">
+      <c t="n" r="C65">
+        <v>102</v>
+      </c>
+      <c t="n" r="D65" s="1">
         <v>41522.0</v>
       </c>
-      <c t="n" r="D65">
+      <c t="n" r="E65">
         <v>30000</v>
       </c>
-      <c t="s" r="E65">
+      <c t="s" r="F65">
         <v>110</v>
       </c>
-      <c t="s" r="F65">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="66">
+      <c t="s" r="G65">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="66">
       <c t="s" r="A66">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="B66">
         <v>51</v>
       </c>
-      <c t="s" r="C66">
+      <c t="n" r="C66">
+        <v>102</v>
+      </c>
+      <c t="s" r="D66">
         <v>19</v>
       </c>
-      <c t="n" r="D66">
+      <c t="n" r="E66">
         <v>15000</v>
       </c>
-      <c t="s" r="E66">
+      <c t="s" r="F66">
         <v>110</v>
       </c>
-      <c t="s" r="F66">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="67">
+      <c t="s" r="G66">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="67">
       <c t="s" r="A67">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="B67">
-        <v>187</v>
-      </c>
-      <c t="s" r="C67">
+        <v>188</v>
+      </c>
+      <c t="n" r="C67">
+        <v>102</v>
+      </c>
+      <c t="s" r="D67">
         <v>22</v>
       </c>
-      <c t="n" r="D67">
+      <c t="n" r="E67">
         <v>30000</v>
       </c>
-      <c t="s" r="E67">
+      <c t="s" r="F67">
         <v>110</v>
       </c>
-      <c t="s" r="F67">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="68">
+      <c t="s" r="G67">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="68">
       <c t="s" r="A68">
         <v>111</v>
       </c>
       <c t="s" r="B68">
         <v>90</v>
       </c>
-      <c t="s" r="C68">
+      <c t="n" r="C68">
+        <v>102</v>
+      </c>
+      <c t="s" r="D68">
         <v>15</v>
       </c>
-      <c t="n" r="D68">
+      <c t="n" r="E68">
         <v>30000</v>
       </c>
-      <c t="s" r="E68">
+      <c t="s" r="F68">
         <v>110</v>
       </c>
-      <c t="s" r="F68">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="69">
+      <c t="s" r="G68">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="69">
       <c t="s" r="A69">
         <v>111</v>
       </c>
       <c t="s" r="B69">
-        <v>142</v>
-      </c>
-      <c t="s" r="C69">
+        <v>143</v>
+      </c>
+      <c t="n" r="C69">
+        <v>102</v>
+      </c>
+      <c t="s" r="D69">
         <v>15</v>
       </c>
-      <c t="n" r="D69">
+      <c t="n" r="E69">
         <v>11949</v>
       </c>
-      <c t="s" r="E69">
+      <c t="s" r="F69">
         <v>110</v>
       </c>
-      <c t="s" r="F69">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="70">
+      <c t="s" r="G69">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="70">
       <c t="s" r="A70">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="B70">
-        <v>146</v>
-      </c>
-      <c t="s" r="C70">
+        <v>147</v>
+      </c>
+      <c t="n" r="C70">
+        <v>102</v>
+      </c>
+      <c t="s" r="D70">
         <v>15</v>
       </c>
-      <c t="n" r="D70">
+      <c t="n" r="E70">
         <v>15000</v>
       </c>
-      <c t="s" r="E70">
-        <v>181</v>
-      </c>
       <c t="s" r="F70">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="71">
+        <v>182</v>
+      </c>
+      <c t="s" r="G70">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="71">
       <c t="s" r="A71">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="B71">
-        <v>189</v>
-      </c>
-      <c t="s" r="C71">
+        <v>190</v>
+      </c>
+      <c t="n" r="C71">
+        <v>102</v>
+      </c>
+      <c t="s" r="D71">
         <v>19</v>
       </c>
-      <c t="n" r="D71">
+      <c t="n" r="E71">
         <v>16000</v>
       </c>
-      <c t="s" r="E71">
-        <v>181</v>
-      </c>
       <c t="s" r="F71">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="72">
+        <v>182</v>
+      </c>
+      <c t="s" r="G71">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="72">
       <c t="s" r="A72">
         <v>34</v>
       </c>
       <c t="s" r="B72">
         <v>88</v>
       </c>
-      <c t="s" r="C72">
+      <c t="n" r="C72">
+        <v>102</v>
+      </c>
+      <c t="s" r="D72">
         <v>15</v>
       </c>
-      <c t="n" r="D72">
+      <c t="n" r="E72">
         <v>148750</v>
       </c>
-      <c t="s" r="E72">
-        <v>181</v>
-      </c>
       <c t="s" r="F72">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="73">
+        <v>182</v>
+      </c>
+      <c t="s" r="G72">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="73">
       <c t="s" r="A73">
         <v>29</v>
       </c>
       <c t="s" r="B73">
         <v>91</v>
       </c>
-      <c t="s" r="C73">
+      <c t="n" r="C73">
+        <v>102</v>
+      </c>
+      <c t="s" r="D73">
         <v>15</v>
       </c>
-      <c t="n" r="D73">
+      <c t="n" r="E73">
         <v>173750</v>
       </c>
-      <c t="s" r="E73">
-        <v>181</v>
-      </c>
       <c t="s" r="F73">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="74">
+        <v>182</v>
+      </c>
+      <c t="s" r="G73">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="74">
       <c t="s" r="A74">
         <v>35</v>
       </c>
       <c t="s" r="B74">
         <v>92</v>
       </c>
-      <c t="s" r="C74">
+      <c t="n" r="C74">
+        <v>102</v>
+      </c>
+      <c t="s" r="D74">
         <v>15</v>
       </c>
-      <c t="n" r="D74">
+      <c t="n" r="E74">
         <v>145000</v>
       </c>
-      <c t="s" r="E74">
-        <v>181</v>
-      </c>
       <c t="s" r="F74">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="75">
+        <v>182</v>
+      </c>
+      <c t="s" r="G74">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="75">
       <c t="s" r="A75">
         <v>109</v>
       </c>
       <c t="s" r="B75">
         <v>79</v>
       </c>
-      <c t="s" r="C75">
+      <c t="n" r="C75">
+        <v>102</v>
+      </c>
+      <c t="s" r="D75">
         <v>15</v>
       </c>
-      <c t="n" r="D75">
+      <c t="n" r="E75">
         <v>148750</v>
       </c>
-      <c t="s" r="E75">
-        <v>181</v>
-      </c>
       <c t="s" r="F75">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="76">
+        <v>182</v>
+      </c>
+      <c t="s" r="G75">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="76">
       <c t="s" r="A76">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="B76">
         <v>53</v>
       </c>
-      <c t="s" r="C76">
+      <c t="n" r="C76">
+        <v>102</v>
+      </c>
+      <c t="s" r="D76">
         <v>15</v>
       </c>
-      <c t="n" r="D76">
+      <c t="n" r="E76">
         <v>20000</v>
       </c>
-      <c t="s" r="E76">
-        <v>181</v>
-      </c>
       <c t="s" r="F76">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="77">
+        <v>182</v>
+      </c>
+      <c t="s" r="G76">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="77">
       <c t="s" r="A77">
         <v>0</v>
       </c>
       <c t="s" r="B77">
-        <v>201</v>
-      </c>
-      <c t="s" r="C77">
+        <v>202</v>
+      </c>
+      <c t="n" r="C77">
+        <v>102</v>
+      </c>
+      <c t="s" r="D77">
         <v>15</v>
       </c>
-      <c t="n" r="D77">
+      <c t="n" r="E77">
         <v>765312</v>
       </c>
-      <c t="s" r="E77">
-        <v>116</v>
-      </c>
       <c t="s" r="F77">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="78">
+        <v>117</v>
+      </c>
+      <c t="s" r="G77">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="78">
       <c t="s" r="A78">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="B78">
-        <v>201</v>
-      </c>
-      <c t="s" r="C78">
-        <v>15</v>
+        <v>202</v>
+      </c>
+      <c t="n" r="C78">
+        <v>102</v>
       </c>
       <c t="n" r="D78">
         <v>0</v>
       </c>
-      <c t="s" r="E78">
-        <v>116</v>
+      <c t="n" r="E78">
+        <v>765312</v>
       </c>
       <c t="s" r="F78">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="79">
+        <v>117</v>
+      </c>
+      <c t="s" r="G78">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="79">
       <c t="s" r="A79">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="B79">
-        <v>202</v>
-      </c>
-      <c t="s" r="C79">
+        <v>203</v>
+      </c>
+      <c t="n" r="C79">
+        <v>102</v>
+      </c>
+      <c t="s" r="D79">
         <v>15</v>
       </c>
-      <c t="n" r="D79">
+      <c t="n" r="E79">
         <v>64000</v>
       </c>
-      <c t="s" r="E79">
-        <v>116</v>
-      </c>
       <c t="s" r="F79">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="80">
+        <v>117</v>
+      </c>
+      <c t="s" r="G79">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="80">
       <c t="s" r="A80">
         <v>5</v>
       </c>
       <c t="s" r="B80">
         <v>60</v>
       </c>
-      <c t="s" r="C80">
+      <c t="n" r="C80">
+        <v>102</v>
+      </c>
+      <c t="s" r="D80">
         <v>22</v>
       </c>
-      <c t="n" r="D80">
+      <c t="n" r="E80">
         <v>450000</v>
       </c>
-      <c t="s" r="E80">
-        <v>116</v>
-      </c>
       <c t="s" r="F80">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="81">
+        <v>117</v>
+      </c>
+      <c t="s" r="G80">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="81">
       <c t="s" r="A81">
         <v>28</v>
       </c>
       <c t="s" r="B81">
         <v>58</v>
       </c>
-      <c t="s" r="C81">
+      <c t="n" r="C81">
+        <v>102</v>
+      </c>
+      <c t="s" r="D81">
         <v>19</v>
       </c>
-      <c t="n" r="D81">
+      <c t="n" r="E81">
         <v>60000</v>
       </c>
-      <c t="s" r="E81">
-        <v>116</v>
-      </c>
       <c t="s" r="F81">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="82">
+        <v>117</v>
+      </c>
+      <c t="s" r="G81">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="82">
       <c t="s" r="A82">
         <v>28</v>
       </c>
       <c t="s" r="B82">
         <v>63</v>
       </c>
-      <c t="s" r="C82">
+      <c t="n" r="C82">
+        <v>102</v>
+      </c>
+      <c t="s" r="D82">
         <v>19</v>
       </c>
-      <c t="n" r="D82">
+      <c t="n" r="E82">
         <v>126104</v>
       </c>
-      <c t="s" r="E82">
-        <v>158</v>
-      </c>
       <c t="s" r="F82">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="83">
+        <v>159</v>
+      </c>
+      <c t="s" r="G82">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="83">
       <c t="s" r="A83">
         <v>70</v>
       </c>
       <c t="s" r="B83">
-        <v>195</v>
-      </c>
-      <c t="s" r="C83">
+        <v>196</v>
+      </c>
+      <c t="n" r="C83">
+        <v>102</v>
+      </c>
+      <c t="s" r="D83">
         <v>15</v>
       </c>
-      <c t="n" r="D83">
+      <c t="n" r="E83">
         <v>16000</v>
       </c>
-      <c t="s" r="E83">
-        <v>159</v>
-      </c>
       <c t="s" r="F83">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="84">
+        <v>160</v>
+      </c>
+      <c t="s" r="G83">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="84">
       <c t="s" r="A84">
         <v>71</v>
       </c>
       <c t="s" r="B84">
-        <v>204</v>
-      </c>
-      <c t="s" r="C84">
+        <v>205</v>
+      </c>
+      <c t="n" r="C84">
+        <v>102</v>
+      </c>
+      <c t="s" r="D84">
         <v>13</v>
       </c>
-      <c t="n" r="D84">
+      <c t="n" r="E84">
         <v>72000</v>
       </c>
-      <c t="s" r="E84">
-        <v>161</v>
-      </c>
       <c t="s" r="F84">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="85">
+        <v>162</v>
+      </c>
+      <c t="s" r="G84">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="85">
       <c t="s" r="A85">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="B85">
-        <v>201</v>
-      </c>
-      <c t="s" r="C85">
+        <v>202</v>
+      </c>
+      <c t="n" r="C85">
+        <v>102</v>
+      </c>
+      <c t="s" r="D85">
         <v>22</v>
       </c>
-      <c t="n" r="D85">
+      <c t="n" r="E85">
         <v>23750</v>
       </c>
-      <c t="s" r="E85">
-        <v>161</v>
-      </c>
       <c t="s" r="F85">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="86">
+        <v>162</v>
+      </c>
+      <c t="s" r="G85">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="86">
       <c t="s" r="A86">
         <v>72</v>
       </c>
       <c t="s" r="B86">
-        <v>201</v>
-      </c>
-      <c t="s" r="C86">
+        <v>202</v>
+      </c>
+      <c t="n" r="C86">
+        <v>102</v>
+      </c>
+      <c t="s" r="D86">
         <v>15</v>
       </c>
-      <c t="n" r="D86">
+      <c t="n" r="E86">
         <v>18000</v>
       </c>
-      <c t="s" r="E86">
-        <v>158</v>
-      </c>
       <c t="s" r="F86">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="87">
+        <v>159</v>
+      </c>
+      <c t="s" r="G86">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="87">
       <c t="s" r="A87">
         <v>40</v>
       </c>
       <c t="s" r="B87">
         <v>46</v>
       </c>
-      <c t="s" r="C87">
+      <c t="n" r="C87">
+        <v>102</v>
+      </c>
+      <c t="s" r="D87">
         <v>15</v>
       </c>
-      <c t="n" r="D87">
+      <c t="n" r="E87">
         <v>976050</v>
       </c>
-      <c t="s" r="E87">
-        <v>113</v>
-      </c>
       <c t="s" r="F87">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="88">
+        <v>114</v>
+      </c>
+      <c t="s" r="G87">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="88">
       <c t="s" r="A88">
         <v>40</v>
       </c>
       <c t="s" r="B88">
         <v>98</v>
       </c>
-      <c t="s" r="C88">
+      <c t="n" r="C88">
+        <v>102</v>
+      </c>
+      <c t="s" r="D88">
         <v>15</v>
       </c>
-      <c t="n" r="D88">
+      <c t="n" r="E88">
         <v>67500</v>
       </c>
-      <c t="s" r="E88">
-        <v>113</v>
-      </c>
       <c t="s" r="F88">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="89">
+        <v>114</v>
+      </c>
+      <c t="s" r="G88">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="89">
       <c t="s" r="A89">
         <v>3</v>
       </c>
       <c t="s" r="B89">
-        <v>191</v>
-      </c>
-      <c t="s" r="C89">
+        <v>192</v>
+      </c>
+      <c t="n" r="C89">
+        <v>102</v>
+      </c>
+      <c t="s" r="D89">
         <v>16</v>
       </c>
-      <c t="n" r="D89">
+      <c t="n" r="E89">
         <v>78400</v>
       </c>
-      <c t="s" r="E89">
-        <v>113</v>
-      </c>
       <c t="s" r="F89">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="90">
+        <v>114</v>
+      </c>
+      <c t="s" r="G89">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="90">
       <c t="s" r="A90">
         <v>2</v>
       </c>
       <c t="s" r="B90">
-        <v>212</v>
-      </c>
-      <c t="s" r="C90">
+        <v>213</v>
+      </c>
+      <c t="n" r="C90">
+        <v>102</v>
+      </c>
+      <c t="s" r="D90">
         <v>16</v>
       </c>
-      <c t="n" r="D90">
+      <c t="n" r="E90">
         <v>50000</v>
       </c>
-      <c t="s" r="E90">
-        <v>113</v>
-      </c>
       <c t="s" r="F90">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="91">
+        <v>114</v>
+      </c>
+      <c t="s" r="G90">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="91">
       <c t="s" r="A91">
         <v>26</v>
       </c>
       <c t="s" r="B91">
-        <v>190</v>
-      </c>
-      <c t="s" r="C91">
+        <v>191</v>
+      </c>
+      <c t="n" r="C91">
+        <v>102</v>
+      </c>
+      <c t="s" r="D91">
         <v>14</v>
       </c>
-      <c t="n" r="D91">
+      <c t="n" r="E91">
         <v>144370</v>
       </c>
-      <c t="s" r="E91">
-        <v>113</v>
-      </c>
       <c t="s" r="F91">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="92">
+        <v>114</v>
+      </c>
+      <c t="s" r="G91">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="92">
       <c t="s" r="A92">
         <v>26</v>
       </c>
       <c t="s" r="B92">
         <v>96</v>
       </c>
-      <c t="s" r="C92">
+      <c t="n" r="C92">
+        <v>102</v>
+      </c>
+      <c t="s" r="D92">
         <v>20</v>
       </c>
-      <c t="n" r="D92">
+      <c t="n" r="E92">
         <v>20417</v>
       </c>
-      <c t="s" r="E92">
-        <v>113</v>
-      </c>
       <c t="s" r="F92">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="93">
+        <v>114</v>
+      </c>
+      <c t="s" r="G92">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="93">
       <c t="s" r="A93">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="B93">
-        <v>189</v>
-      </c>
-      <c t="s" r="C93">
+        <v>190</v>
+      </c>
+      <c t="n" r="C93">
+        <v>102</v>
+      </c>
+      <c t="s" r="D93">
         <v>23</v>
       </c>
-      <c t="n" r="D93">
+      <c t="n" r="E93">
         <v>8400</v>
       </c>
-      <c t="s" r="E93">
-        <v>113</v>
-      </c>
       <c t="s" r="F93">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="94">
+        <v>114</v>
+      </c>
+      <c t="s" r="G93">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="94">
       <c t="s" r="A94">
         <v>106</v>
       </c>
       <c t="s" r="B94">
-        <v>211</v>
-      </c>
-      <c t="s" r="C94">
+        <v>212</v>
+      </c>
+      <c t="n" r="C94">
+        <v>102</v>
+      </c>
+      <c t="s" r="D94">
         <v>17</v>
       </c>
-      <c t="n" r="D94">
+      <c t="n" r="E94">
         <v>135970</v>
       </c>
-      <c t="s" r="E94">
-        <v>113</v>
-      </c>
       <c t="s" r="F94">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="95">
+        <v>114</v>
+      </c>
+      <c t="s" r="G94">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="95">
       <c t="s" r="A95">
         <v>8</v>
       </c>
       <c t="s" r="B95">
-        <v>211</v>
-      </c>
-      <c t="s" r="C95">
+        <v>212</v>
+      </c>
+      <c t="n" r="C95">
+        <v>102</v>
+      </c>
+      <c t="s" r="D95">
         <v>22</v>
       </c>
-      <c t="n" r="D95">
+      <c t="n" r="E95">
         <v>135970</v>
       </c>
-      <c t="s" r="E95">
-        <v>113</v>
-      </c>
       <c t="s" r="F95">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="96">
+        <v>114</v>
+      </c>
+      <c t="s" r="G95">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="96">
       <c t="s" r="A96">
         <v>8</v>
       </c>
       <c t="s" r="B96">
         <v>57</v>
       </c>
-      <c t="s" r="C96">
+      <c t="n" r="C96">
+        <v>102</v>
+      </c>
+      <c t="s" r="D96">
         <v>16</v>
       </c>
-      <c t="n" r="D96">
+      <c t="n" r="E96">
         <v>4000</v>
       </c>
-      <c t="s" r="E96">
-        <v>113</v>
-      </c>
       <c t="s" r="F96">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="97">
+        <v>114</v>
+      </c>
+      <c t="s" r="G96">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="97">
       <c t="s" r="A97">
         <v>8</v>
       </c>
       <c t="s" r="B97">
         <v>75</v>
       </c>
-      <c t="s" r="C97">
+      <c t="n" r="C97">
+        <v>102</v>
+      </c>
+      <c t="s" r="D97">
         <v>16</v>
       </c>
-      <c t="n" r="D97">
+      <c t="n" r="E97">
         <v>15666</v>
       </c>
-      <c t="s" r="E97">
-        <v>113</v>
-      </c>
       <c t="s" r="F97">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="98">
+        <v>114</v>
+      </c>
+      <c t="s" r="G97">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="98">
       <c t="s" r="A98">
         <v>7</v>
       </c>
       <c t="s" r="B98">
         <v>97</v>
       </c>
-      <c t="s" r="C98">
+      <c t="n" r="C98">
+        <v>102</v>
+      </c>
+      <c t="s" r="D98">
         <v>22</v>
       </c>
-      <c t="n" r="D98">
+      <c t="n" r="E98">
         <v>20417</v>
       </c>
-      <c t="s" r="E98">
-        <v>113</v>
-      </c>
       <c t="s" r="F98">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="99">
+        <v>114</v>
+      </c>
+      <c t="s" r="G98">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="99">
       <c t="s" r="A99">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="B99">
-        <v>137</v>
-      </c>
-      <c t="s" r="C99">
+        <v>138</v>
+      </c>
+      <c t="n" r="C99">
+        <v>102</v>
+      </c>
+      <c t="s" r="D99">
         <v>22</v>
       </c>
-      <c t="n" r="D99">
+      <c t="n" r="E99">
         <v>60735</v>
       </c>
-      <c t="s" r="E99">
-        <v>113</v>
-      </c>
       <c t="s" r="F99">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="100">
+        <v>114</v>
+      </c>
+      <c t="s" r="G99">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="100">
       <c t="s" r="A100">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="B100">
         <v>99</v>
       </c>
-      <c t="s" r="C100">
+      <c t="n" r="C100">
+        <v>102</v>
+      </c>
+      <c t="s" r="D100">
         <v>22</v>
       </c>
-      <c t="n" r="D100">
+      <c t="n" r="E100">
         <v>5000</v>
       </c>
-      <c t="s" r="E100">
-        <v>113</v>
-      </c>
       <c t="s" r="F100">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="101">
+        <v>114</v>
+      </c>
+      <c t="s" r="G100">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="101">
       <c t="s" r="A101">
         <v>27</v>
       </c>
       <c t="s" r="B101">
-        <v>196</v>
-      </c>
-      <c t="s" r="C101">
+        <v>197</v>
+      </c>
+      <c t="n" r="C101">
+        <v>102</v>
+      </c>
+      <c t="s" r="D101">
         <v>22</v>
       </c>
-      <c t="n" r="D101">
+      <c t="n" r="E101">
         <v>20000</v>
       </c>
-      <c t="s" r="E101">
-        <v>113</v>
-      </c>
       <c t="s" r="F101">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="102">
+        <v>114</v>
+      </c>
+      <c t="s" r="G101">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="102">
       <c t="s" r="A102">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="B102">
-        <v>209</v>
-      </c>
-      <c t="s" r="C102">
+        <v>210</v>
+      </c>
+      <c t="n" r="C102">
+        <v>102</v>
+      </c>
+      <c t="s" r="D102">
         <v>15</v>
       </c>
-      <c t="n" r="D102">
+      <c t="n" r="E102">
         <v>57000</v>
       </c>
-      <c t="s" r="E102">
-        <v>113</v>
-      </c>
       <c t="s" r="F102">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="103">
+        <v>114</v>
+      </c>
+      <c t="s" r="G102">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="103">
       <c t="s" r="A103">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="B103">
         <v>77</v>
       </c>
-      <c t="s" r="C103">
+      <c t="n" r="C103">
+        <v>102</v>
+      </c>
+      <c t="s" r="D103">
         <v>19</v>
       </c>
-      <c t="s" r="D103">
+      <c t="s" r="E103">
         <v>4</v>
       </c>
-      <c t="s" r="E103">
-        <v>113</v>
-      </c>
       <c t="s" r="F103">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="104">
+        <v>114</v>
+      </c>
+      <c t="s" r="G103">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="104">
       <c t="s" r="A104">
         <v>68</v>
       </c>
       <c t="s" r="B104">
         <v>78</v>
       </c>
-      <c t="s" r="C104">
+      <c t="n" r="C104">
+        <v>102</v>
+      </c>
+      <c t="s" r="D104">
         <v>18</v>
       </c>
-      <c t="n" r="D104">
+      <c t="n" r="E104">
         <v>23332</v>
       </c>
-      <c t="s" r="E104">
-        <v>113</v>
-      </c>
       <c t="s" r="F104">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="105">
+        <v>114</v>
+      </c>
+      <c t="s" r="G104">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="105">
       <c t="s" r="A105">
         <v>107</v>
       </c>
       <c t="s" r="B105">
         <v>53</v>
       </c>
-      <c t="s" r="C105">
+      <c t="n" r="C105">
+        <v>102</v>
+      </c>
+      <c t="s" r="D105">
         <v>19</v>
       </c>
-      <c t="n" r="D105">
+      <c t="n" r="E105">
         <v>1500</v>
       </c>
-      <c t="s" r="E105">
-        <v>113</v>
-      </c>
       <c t="s" r="F105">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="106">
+        <v>114</v>
+      </c>
+      <c t="s" r="G105">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="106">
       <c t="s" r="A106">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="B106">
         <v>61</v>
       </c>
-      <c t="s" r="C106">
+      <c t="n" r="C106">
+        <v>102</v>
+      </c>
+      <c t="s" r="D106">
         <v>23</v>
       </c>
-      <c t="n" r="D106">
+      <c t="n" r="E106">
         <v>1500</v>
       </c>
-      <c t="s" r="E106">
-        <v>113</v>
-      </c>
       <c t="s" r="F106">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="107">
+        <v>114</v>
+      </c>
+      <c t="s" r="G106">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="107">
       <c t="s" r="A107">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="B107">
         <v>53</v>
       </c>
-      <c t="s" r="C107">
+      <c t="n" r="C107">
+        <v>102</v>
+      </c>
+      <c t="s" r="D107">
         <v>23</v>
       </c>
-      <c t="n" r="D107">
+      <c t="n" r="E107">
         <v>1500</v>
       </c>
-      <c t="s" r="E107">
-        <v>113</v>
-      </c>
       <c t="s" r="F107">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="108">
+        <v>114</v>
+      </c>
+      <c t="s" r="G107">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="108">
       <c t="s" r="A108">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="B108">
         <v>53</v>
       </c>
-      <c t="s" r="C108">
+      <c t="n" r="C108">
+        <v>102</v>
+      </c>
+      <c t="s" r="D108">
         <v>23</v>
       </c>
-      <c t="n" r="D108">
+      <c t="n" r="E108">
         <v>1500</v>
       </c>
-      <c t="s" r="E108">
-        <v>113</v>
-      </c>
       <c t="s" r="F108">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="109">
+        <v>114</v>
+      </c>
+      <c t="s" r="G108">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="109">
       <c t="s" r="A109">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="B109">
         <v>53</v>
       </c>
-      <c t="s" r="C109">
+      <c t="n" r="C109">
+        <v>102</v>
+      </c>
+      <c t="s" r="D109">
         <v>23</v>
       </c>
-      <c t="n" r="D109">
+      <c t="n" r="E109">
         <v>1500</v>
       </c>
-      <c t="s" r="E109">
-        <v>113</v>
-      </c>
       <c t="s" r="F109">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="110">
+        <v>114</v>
+      </c>
+      <c t="s" r="G109">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="110">
       <c t="s" r="A110">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="B110">
         <v>78</v>
       </c>
-      <c t="s" r="C110">
+      <c t="n" r="C110">
+        <v>102</v>
+      </c>
+      <c t="s" r="D110">
         <v>16</v>
       </c>
-      <c t="n" r="D110">
+      <c t="n" r="E110">
         <v>10000</v>
       </c>
-      <c t="s" r="E110">
-        <v>113</v>
-      </c>
       <c t="s" r="F110">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="111">
+        <v>114</v>
+      </c>
+      <c t="s" r="G110">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="111">
       <c t="s" r="A111">
         <v>66</v>
       </c>
       <c t="s" r="B111">
         <v>78</v>
       </c>
-      <c t="s" r="C111">
+      <c t="n" r="C111">
+        <v>102</v>
+      </c>
+      <c t="s" r="D111">
         <v>22</v>
       </c>
-      <c t="n" r="D111">
+      <c t="n" r="E111">
         <v>30000</v>
       </c>
-      <c t="s" r="E111">
-        <v>113</v>
-      </c>
       <c t="s" r="F111">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="112">
+        <v>114</v>
+      </c>
+      <c t="s" r="G111">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="112">
       <c t="s" r="A112">
         <v>65</v>
       </c>
       <c t="s" r="B112">
         <v>53</v>
       </c>
-      <c t="s" r="C112">
+      <c t="n" r="C112">
+        <v>102</v>
+      </c>
+      <c t="s" r="D112">
         <v>23</v>
       </c>
-      <c t="n" r="D112">
+      <c t="n" r="E112">
         <v>1500</v>
       </c>
-      <c t="s" r="E112">
-        <v>113</v>
-      </c>
       <c t="s" r="F112">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="113">
+        <v>114</v>
+      </c>
+      <c t="s" r="G112">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="113">
       <c t="s" r="A113">
         <v>64</v>
       </c>
       <c t="s" r="B113">
         <v>87</v>
       </c>
-      <c t="s" r="C113">
+      <c t="n" r="C113">
+        <v>102</v>
+      </c>
+      <c t="s" r="D113">
         <v>22</v>
       </c>
-      <c t="n" r="D113">
+      <c t="n" r="E113">
         <v>20000</v>
       </c>
-      <c t="s" r="E113">
-        <v>113</v>
-      </c>
       <c t="s" r="F113">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="114">
+        <v>114</v>
+      </c>
+      <c t="s" r="G113">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="114">
       <c t="s" r="A114">
         <v>67</v>
       </c>
       <c t="s" r="B114">
         <v>76</v>
       </c>
-      <c t="s" r="C114">
+      <c t="n" r="C114">
+        <v>102</v>
+      </c>
+      <c t="s" r="D114">
         <v>12</v>
       </c>
-      <c t="n" r="D114">
+      <c t="n" r="E114">
         <v>25000</v>
       </c>
-      <c t="s" r="E114">
-        <v>113</v>
-      </c>
       <c t="s" r="F114">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="115">
+        <v>114</v>
+      </c>
+      <c t="s" r="G114">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="115">
       <c t="s" r="A115">
         <v>112</v>
       </c>
       <c t="s" r="B115">
         <v>56</v>
       </c>
-      <c t="s" r="C115">
+      <c t="n" r="C115">
+        <v>102</v>
+      </c>
+      <c t="s" r="D115">
         <v>19</v>
       </c>
-      <c t="n" r="D115">
+      <c t="n" r="E115">
         <v>4000</v>
       </c>
-      <c t="s" r="E115">
-        <v>113</v>
-      </c>
       <c t="s" r="F115">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="116">
+        <v>114</v>
+      </c>
+      <c t="s" r="G115">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="116">
       <c t="s" r="A116">
         <v>112</v>
       </c>
       <c t="s" r="B116">
         <v>89</v>
       </c>
-      <c t="s" r="C116">
+      <c t="n" r="C116">
+        <v>102</v>
+      </c>
+      <c t="s" r="D116">
         <v>19</v>
       </c>
-      <c t="n" r="D116">
+      <c t="n" r="E116">
         <v>40000</v>
       </c>
-      <c t="s" r="E116">
-        <v>113</v>
-      </c>
       <c t="s" r="F116">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="117">
+        <v>114</v>
+      </c>
+      <c t="s" r="G116">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="117">
       <c t="s" r="A117">
         <v>105</v>
       </c>
       <c t="s" r="B117">
         <v>76</v>
       </c>
-      <c t="s" r="C117">
+      <c t="n" r="C117">
+        <v>102</v>
+      </c>
+      <c t="s" r="D117">
         <v>12</v>
       </c>
-      <c t="n" r="D117">
+      <c t="n" r="E117">
         <v>55000</v>
       </c>
-      <c t="s" r="E117">
-        <v>113</v>
-      </c>
       <c t="s" r="F117">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="118">
+        <v>114</v>
+      </c>
+      <c t="s" r="G117">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="118">
       <c t="s" r="A118">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="B118">
         <v>84</v>
       </c>
-      <c t="s" r="C118">
+      <c t="n" r="C118">
+        <v>102</v>
+      </c>
+      <c t="s" r="D118">
         <v>12</v>
       </c>
-      <c t="n" r="D118">
+      <c t="n" r="E118">
         <v>10666</v>
       </c>
-      <c t="s" r="E118">
-        <v>113</v>
-      </c>
       <c t="s" r="F118">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="119">
+        <v>114</v>
+      </c>
+      <c t="s" r="G118">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="119">
       <c t="s" r="A119">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="B119">
         <v>83</v>
       </c>
-      <c t="s" r="C119">
+      <c t="n" r="C119">
+        <v>102</v>
+      </c>
+      <c t="s" r="D119">
         <v>12</v>
       </c>
-      <c t="n" r="D119">
+      <c t="n" r="E119">
         <v>20666</v>
       </c>
-      <c t="s" r="E119">
-        <v>113</v>
-      </c>
       <c t="s" r="F119">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="120">
+        <v>114</v>
+      </c>
+      <c t="s" r="G119">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="120">
       <c t="s" r="A120">
         <v>42</v>
       </c>
       <c t="s" r="B120">
         <v>94</v>
       </c>
-      <c t="s" r="C120">
+      <c t="n" r="C120">
+        <v>102</v>
+      </c>
+      <c t="s" r="D120">
         <v>19</v>
       </c>
-      <c t="n" r="D120">
+      <c t="n" r="E120">
         <v>10000</v>
       </c>
-      <c t="s" r="E120">
-        <v>113</v>
-      </c>
       <c t="s" r="F120">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="121">
+        <v>114</v>
+      </c>
+      <c t="s" r="G120">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="121">
       <c t="s" r="A121">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="B121">
         <v>76</v>
       </c>
-      <c t="s" r="C121">
+      <c t="n" r="C121">
+        <v>102</v>
+      </c>
+      <c t="s" r="D121">
         <v>12</v>
       </c>
-      <c t="n" r="D121">
+      <c t="n" r="E121">
         <v>25000</v>
       </c>
-      <c t="s" r="E121">
-        <v>113</v>
-      </c>
       <c t="s" r="F121">
+        <v>114</v>
+      </c>
+      <c t="s" r="G121">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="122">
+      <c t="s" r="A122">
+        <v>177</v>
+      </c>
+      <c t="s" r="B122">
+        <v>148</v>
+      </c>
+      <c t="n" r="C122">
+        <v>102</v>
+      </c>
+      <c t="s" r="D122">
+        <v>13</v>
+      </c>
+      <c t="n" r="E122">
+        <v>7000</v>
+      </c>
+      <c t="s" r="F122">
+        <v>114</v>
+      </c>
+      <c t="s" r="G122">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="123">
+      <c t="s" r="A123">
+        <v>224</v>
+      </c>
+      <c t="s" r="B123">
+        <v>149</v>
+      </c>
+      <c t="n" r="C123">
+        <v>102</v>
+      </c>
+      <c t="s" r="D123">
+        <v>13</v>
+      </c>
+      <c t="n" r="E123">
+        <v>7000</v>
+      </c>
+      <c t="s" r="F123">
+        <v>114</v>
+      </c>
+      <c t="s" r="G123">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="124">
+      <c t="s" r="A124">
+        <v>165</v>
+      </c>
+      <c t="s" r="B124">
+        <v>202</v>
+      </c>
+      <c t="n" r="C124">
+        <v>102</v>
+      </c>
+      <c t="s" r="D124">
+        <v>15</v>
+      </c>
+      <c t="n" r="E124">
+        <v>20000</v>
+      </c>
+      <c t="s" r="F124">
+        <v>163</v>
+      </c>
+      <c t="s" r="G124">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="125">
+      <c t="s" r="A125">
         <v>167</v>
       </c>
-    </row>
-    <row spans="1:7" r="122">
-      <c t="s" r="A122">
-        <v>176</v>
-      </c>
-      <c t="s" r="B122">
-        <v>147</v>
-      </c>
-      <c t="s" r="C122">
-        <v>13</v>
-      </c>
-      <c t="n" r="D122">
-        <v>7000</v>
-      </c>
-      <c t="s" r="E122">
-        <v>113</v>
-      </c>
-      <c t="s" r="F122">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="123">
-      <c t="s" r="A123">
-        <v>223</v>
-      </c>
-      <c t="s" r="B123">
-        <v>148</v>
-      </c>
-      <c t="s" r="C123">
-        <v>13</v>
-      </c>
-      <c t="n" r="D123">
-        <v>7000</v>
-      </c>
-      <c t="s" r="E123">
-        <v>113</v>
-      </c>
-      <c t="s" r="F123">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="124">
-      <c t="s" r="A124">
-        <v>164</v>
-      </c>
-      <c t="s" r="B124">
-        <v>201</v>
-      </c>
-      <c t="s" r="C124">
-        <v>15</v>
-      </c>
-      <c t="n" r="D124">
-        <v>20000</v>
-      </c>
-      <c t="s" r="E124">
-        <v>162</v>
-      </c>
-      <c t="s" r="F124">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="125">
-      <c t="s" r="A125">
-        <v>166</v>
-      </c>
       <c t="s" r="B125">
-        <v>207</v>
-      </c>
-      <c t="s" r="C125">
+        <v>208</v>
+      </c>
+      <c t="n" r="C125">
+        <v>102</v>
+      </c>
+      <c t="s" r="D125">
         <v>16</v>
       </c>
-      <c t="n" r="D125">
+      <c t="n" r="E125">
         <v>30000</v>
       </c>
-      <c t="s" r="E125">
-        <v>162</v>
-      </c>
       <c t="s" r="F125">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="126">
+        <v>163</v>
+      </c>
+      <c t="s" r="G125">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="126">
       <c t="s" r="A126">
         <v>103</v>
       </c>
       <c t="s" r="B126">
-        <v>207</v>
-      </c>
-      <c t="s" r="C126">
+        <v>208</v>
+      </c>
+      <c t="n" r="C126">
+        <v>102</v>
+      </c>
+      <c t="s" r="D126">
         <v>22</v>
       </c>
-      <c t="n" r="D126">
+      <c t="n" r="E126">
         <v>30000</v>
       </c>
-      <c t="s" r="E126">
-        <v>162</v>
-      </c>
       <c t="s" r="F126">
-        <v>167</v>
-      </c>
-    </row>
-    <row spans="1:7" r="127">
+        <v>163</v>
+      </c>
+      <c t="s" r="G126">
+        <v>168</v>
+      </c>
+    </row>
+    <row spans="1:8" r="127">
       <c t="s" r="A127">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="B127">
         <v>93</v>
       </c>
-      <c t="s" r="C127">
+      <c t="n" r="C127">
+        <v>102</v>
+      </c>
+      <c t="s" r="D127">
         <v>15</v>
       </c>
-      <c t="n" r="D127">
+      <c t="n" r="E127">
         <v>174375</v>
       </c>
-      <c t="s" r="E127">
-        <v>162</v>
-      </c>
       <c t="s" r="F127">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c t="s" r="G127">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/1_政策宣傳執情形/parsed/農委會/農委會主管102年第3季廣宣彙整表.xlsx
+++ b/1_政策宣傳執情形/parsed/農委會/農委會主管102年第3季廣宣彙整表.xlsx
@@ -1062,7 +1062,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:H127"/>
   <sheetViews>
@@ -1082,7 +1082,7 @@
     <col max="8" min="8" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:8" r="1">
+    <row r="1" spans="1:8">
       <c t="s" r="A1" s="2">
         <v>30</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row spans="1:8" r="2">
+    <row r="2" spans="1:8">
       <c t="s" r="A2">
         <v>155</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="3">
+    <row r="3" spans="1:8">
       <c t="s" r="A3">
         <v>155</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="4">
+    <row r="4" spans="1:8">
       <c t="s" r="A4">
         <v>155</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="5">
+    <row r="5" spans="1:8">
       <c t="s" r="A5">
         <v>155</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="6">
+    <row r="6" spans="1:8">
       <c t="s" r="A6">
         <v>32</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="7">
+    <row r="7" spans="1:8">
       <c t="s" r="A7">
         <v>32</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="8">
+    <row r="8" spans="1:8">
       <c t="s" r="A8">
         <v>118</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="9">
+    <row r="9" spans="1:8">
       <c t="s" r="A9">
         <v>118</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="10">
+    <row r="10" spans="1:8">
       <c t="s" r="A10">
         <v>118</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="11">
+    <row r="11" spans="1:8">
       <c t="s" r="A11">
         <v>118</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="12">
+    <row r="12" spans="1:8">
       <c t="s" r="A12">
         <v>118</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="13">
+    <row r="13" spans="1:8">
       <c t="s" r="A13">
         <v>73</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="14">
+    <row r="14" spans="1:8">
       <c t="s" r="A14">
         <v>73</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="15">
+    <row r="15" spans="1:8">
       <c t="s" r="A15">
         <v>180</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="16">
+    <row r="16" spans="1:8">
       <c t="s" r="A16">
         <v>180</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="17">
+    <row r="17" spans="1:8">
       <c t="s" r="A17">
         <v>180</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="18">
+    <row r="18" spans="1:8">
       <c t="s" r="A18">
         <v>122</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="19">
+    <row r="19" spans="1:8">
       <c t="s" r="A19">
         <v>122</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="20">
+    <row r="20" spans="1:8">
       <c t="s" r="A20">
         <v>122</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="21">
+    <row r="21" spans="1:8">
       <c t="s" r="A21">
         <v>122</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="22">
+    <row r="22" spans="1:8">
       <c t="s" r="A22">
         <v>122</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="23">
+    <row r="23" spans="1:8">
       <c t="s" r="A23">
         <v>1</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="24">
+    <row r="24" spans="1:8">
       <c t="s" r="A24">
         <v>1</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="25">
+    <row r="25" spans="1:8">
       <c t="s" r="A25">
         <v>1</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="26">
+    <row r="26" spans="1:8">
       <c t="s" r="A26">
         <v>39</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="27">
+    <row r="27" spans="1:8">
       <c t="s" r="A27">
         <v>39</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="28">
+    <row r="28" spans="1:8">
       <c t="s" r="A28">
         <v>123</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="29">
+    <row r="29" spans="1:8">
       <c t="s" r="A29">
         <v>124</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="30">
+    <row r="30" spans="1:8">
       <c t="s" r="A30">
         <v>124</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="31">
+    <row r="31" spans="1:8">
       <c t="s" r="A31">
         <v>124</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="32">
+    <row r="32" spans="1:8">
       <c t="s" r="A32">
         <v>124</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="33">
+    <row r="33" spans="1:8">
       <c t="s" r="A33">
         <v>121</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="34">
+    <row r="34" spans="1:8">
       <c t="s" r="A34">
         <v>173</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="35">
+    <row r="35" spans="1:8">
       <c t="s" r="A35">
         <v>126</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="36">
+    <row r="36" spans="1:8">
       <c t="s" r="A36">
         <v>126</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="37">
+    <row r="37" spans="1:8">
       <c t="s" r="A37">
         <v>126</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="38">
+    <row r="38" spans="1:8">
       <c t="s" r="A38">
         <v>126</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="39">
+    <row r="39" spans="1:8">
       <c t="s" r="A39">
         <v>115</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="40">
+    <row r="40" spans="1:8">
       <c t="s" r="A40">
         <v>115</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="41">
+    <row r="41" spans="1:8">
       <c t="s" r="A41">
         <v>153</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="42">
+    <row r="42" spans="1:8">
       <c t="s" r="A42">
         <v>25</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="43">
+    <row r="43" spans="1:8">
       <c t="s" r="A43">
         <v>226</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="44">
+    <row r="44" spans="1:8">
       <c t="s" r="A44">
         <v>226</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="45">
+    <row r="45" spans="1:8">
       <c t="s" r="A45">
         <v>26</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="46">
+    <row r="46" spans="1:8">
       <c t="s" r="A46">
         <v>33</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="47">
+    <row r="47" spans="1:8">
       <c t="s" r="A47">
         <v>9</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="48">
+    <row r="48" spans="1:8">
       <c t="s" r="A48">
         <v>6</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="49">
+    <row r="49" spans="1:8">
       <c t="s" r="A49">
         <v>183</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="50">
+    <row r="50" spans="1:8">
       <c t="s" r="A50">
         <v>36</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="51">
+    <row r="51" spans="1:8">
       <c t="s" r="A51">
         <v>125</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="52">
+    <row r="52" spans="1:8">
       <c t="s" r="A52">
         <v>125</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="53">
+    <row r="53" spans="1:8">
       <c t="s" r="A53">
         <v>125</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="54">
+    <row r="54" spans="1:8">
       <c t="s" r="A54">
         <v>125</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="55">
+    <row r="55" spans="1:8">
       <c t="s" r="A55">
         <v>154</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="56">
+    <row r="56" spans="1:8">
       <c t="s" r="A56">
         <v>38</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="57">
+    <row r="57" spans="1:8">
       <c t="s" r="A57">
         <v>38</v>
       </c>
@@ -2383,12 +2383,12 @@
       <c t="n" r="C57">
         <v>102</v>
       </c>
-      <c t="n" r="D57">
+      <c t="s" r="D57">
+        <v>18</v>
+      </c>
+      <c t="n" r="E57">
         <v>0</v>
       </c>
-      <c t="n" r="E57">
-        <v>100000</v>
-      </c>
       <c t="s" r="F57">
         <v>168</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="58">
+    <row r="58" spans="1:8">
       <c t="s" r="A58">
         <v>37</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="59">
+    <row r="59" spans="1:8">
       <c t="s" r="A59">
         <v>37</v>
       </c>
@@ -2429,12 +2429,12 @@
       <c t="n" r="C59">
         <v>102</v>
       </c>
-      <c t="n" r="D59">
+      <c t="s" r="D59">
+        <v>22</v>
+      </c>
+      <c t="n" r="E59">
         <v>0</v>
       </c>
-      <c t="n" r="E59">
-        <v>900000</v>
-      </c>
       <c t="s" r="F59">
         <v>168</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="60">
+    <row r="60" spans="1:8">
       <c t="s" r="A60">
         <v>104</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="61">
+    <row r="61" spans="1:8">
       <c t="s" r="A61">
         <v>178</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="62">
+    <row r="62" spans="1:8">
       <c t="s" r="A62">
         <v>179</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="63">
+    <row r="63" spans="1:8">
       <c t="s" r="A63">
         <v>152</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="64">
+    <row r="64" spans="1:8">
       <c t="s" r="A64">
         <v>151</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="65">
+    <row r="65" spans="1:8">
       <c t="s" r="A65">
         <v>129</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="66">
+    <row r="66" spans="1:8">
       <c t="s" r="A66">
         <v>118</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="67">
+    <row r="67" spans="1:8">
       <c t="s" r="A67">
         <v>118</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="68">
+    <row r="68" spans="1:8">
       <c t="s" r="A68">
         <v>111</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="69">
+    <row r="69" spans="1:8">
       <c t="s" r="A69">
         <v>111</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="70">
+    <row r="70" spans="1:8">
       <c t="s" r="A70">
         <v>181</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="71">
+    <row r="71" spans="1:8">
       <c t="s" r="A71">
         <v>130</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="72">
+    <row r="72" spans="1:8">
       <c t="s" r="A72">
         <v>34</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="73">
+    <row r="73" spans="1:8">
       <c t="s" r="A73">
         <v>29</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="74">
+    <row r="74" spans="1:8">
       <c t="s" r="A74">
         <v>35</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="75">
+    <row r="75" spans="1:8">
       <c t="s" r="A75">
         <v>109</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="76">
+    <row r="76" spans="1:8">
       <c t="s" r="A76">
         <v>223</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="77">
+    <row r="77" spans="1:8">
       <c t="s" r="A77">
         <v>0</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="78">
+    <row r="78" spans="1:8">
       <c t="s" r="A78">
         <v>164</v>
       </c>
@@ -2866,11 +2866,11 @@
       <c t="n" r="C78">
         <v>102</v>
       </c>
-      <c t="n" r="D78">
+      <c t="s" r="D78">
+        <v>15</v>
+      </c>
+      <c t="n" r="E78">
         <v>0</v>
-      </c>
-      <c t="n" r="E78">
-        <v>765312</v>
       </c>
       <c t="s" r="F78">
         <v>117</v>
@@ -2879,7 +2879,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="79">
+    <row r="79" spans="1:8">
       <c t="s" r="A79">
         <v>120</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="80">
+    <row r="80" spans="1:8">
       <c t="s" r="A80">
         <v>5</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="81">
+    <row r="81" spans="1:8">
       <c t="s" r="A81">
         <v>28</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="82">
+    <row r="82" spans="1:8">
       <c t="s" r="A82">
         <v>28</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="83">
+    <row r="83" spans="1:8">
       <c t="s" r="A83">
         <v>70</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="84">
+    <row r="84" spans="1:8">
       <c t="s" r="A84">
         <v>71</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="85">
+    <row r="85" spans="1:8">
       <c t="s" r="A85">
         <v>127</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="86">
+    <row r="86" spans="1:8">
       <c t="s" r="A86">
         <v>72</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="87">
+    <row r="87" spans="1:8">
       <c t="s" r="A87">
         <v>40</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="88">
+    <row r="88" spans="1:8">
       <c t="s" r="A88">
         <v>40</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="89">
+    <row r="89" spans="1:8">
       <c t="s" r="A89">
         <v>3</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="90">
+    <row r="90" spans="1:8">
       <c t="s" r="A90">
         <v>2</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="91">
+    <row r="91" spans="1:8">
       <c t="s" r="A91">
         <v>26</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="92">
+    <row r="92" spans="1:8">
       <c t="s" r="A92">
         <v>26</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="93">
+    <row r="93" spans="1:8">
       <c t="s" r="A93">
         <v>119</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="94">
+    <row r="94" spans="1:8">
       <c t="s" r="A94">
         <v>106</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="95">
+    <row r="95" spans="1:8">
       <c t="s" r="A95">
         <v>8</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="96">
+    <row r="96" spans="1:8">
       <c t="s" r="A96">
         <v>8</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="97">
+    <row r="97" spans="1:8">
       <c t="s" r="A97">
         <v>8</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="98">
+    <row r="98" spans="1:8">
       <c t="s" r="A98">
         <v>7</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="99">
+    <row r="99" spans="1:8">
       <c t="s" r="A99">
         <v>225</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="100">
+    <row r="100" spans="1:8">
       <c t="s" r="A100">
         <v>169</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="101">
+    <row r="101" spans="1:8">
       <c t="s" r="A101">
         <v>27</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="102">
+    <row r="102" spans="1:8">
       <c t="s" r="A102">
         <v>128</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="103">
+    <row r="103" spans="1:8">
       <c t="s" r="A103">
         <v>150</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="104">
+    <row r="104" spans="1:8">
       <c t="s" r="A104">
         <v>68</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="105">
+    <row r="105" spans="1:8">
       <c t="s" r="A105">
         <v>107</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="106">
+    <row r="106" spans="1:8">
       <c t="s" r="A106">
         <v>171</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="107">
+    <row r="107" spans="1:8">
       <c t="s" r="A107">
         <v>172</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="108">
+    <row r="108" spans="1:8">
       <c t="s" r="A108">
         <v>170</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="109">
+    <row r="109" spans="1:8">
       <c t="s" r="A109">
         <v>116</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="110">
+    <row r="110" spans="1:8">
       <c t="s" r="A110">
         <v>156</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="111">
+    <row r="111" spans="1:8">
       <c t="s" r="A111">
         <v>66</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="112">
+    <row r="112" spans="1:8">
       <c t="s" r="A112">
         <v>65</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="113">
+    <row r="113" spans="1:8">
       <c t="s" r="A113">
         <v>64</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="114">
+    <row r="114" spans="1:8">
       <c t="s" r="A114">
         <v>67</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="115">
+    <row r="115" spans="1:8">
       <c t="s" r="A115">
         <v>112</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="116">
+    <row r="116" spans="1:8">
       <c t="s" r="A116">
         <v>112</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="117">
+    <row r="117" spans="1:8">
       <c t="s" r="A117">
         <v>105</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="118">
+    <row r="118" spans="1:8">
       <c t="s" r="A118">
         <v>174</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="119">
+    <row r="119" spans="1:8">
       <c t="s" r="A119">
         <v>176</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="120">
+    <row r="120" spans="1:8">
       <c t="s" r="A120">
         <v>42</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="121">
+    <row r="121" spans="1:8">
       <c t="s" r="A121">
         <v>175</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="122">
+    <row r="122" spans="1:8">
       <c t="s" r="A122">
         <v>177</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="123">
+    <row r="123" spans="1:8">
       <c t="s" r="A123">
         <v>224</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="124">
+    <row r="124" spans="1:8">
       <c t="s" r="A124">
         <v>165</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="125">
+    <row r="125" spans="1:8">
       <c t="s" r="A125">
         <v>167</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="126">
+    <row r="126" spans="1:8">
       <c t="s" r="A126">
         <v>103</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>168</v>
       </c>
     </row>
-    <row spans="1:8" r="127">
+    <row r="127" spans="1:8">
       <c t="s" r="A127">
         <v>166</v>
       </c>
